--- a/OperazioneSanSilvestro/ROM_controllo.xlsx
+++ b/OperazioneSanSilvestro/ROM_controllo.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PoliTo\SDI\Laboratori\LaboratoriSDI\OperazioneSanSilvestro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF1E5CF-8112-4D0E-AF2B-27EFA4F46DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1E478A-C84E-4E0A-A65C-3C327BC8DF2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="1740" windowWidth="17280" windowHeight="8964" xr2:uid="{1C19EF36-42B0-4CC7-9733-6604E177C732}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{1C19EF36-42B0-4CC7-9733-6604E177C732}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
   <si>
     <t>MUX1</t>
   </si>
@@ -105,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +117,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,8 +150,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -149,7 +165,27 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -480,10 +516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4912B37-BC19-4D01-9944-F43EC8F455B4}">
-  <dimension ref="A2:Z18"/>
+  <dimension ref="A2:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,14 +536,14 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="5"/>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -519,10 +556,10 @@
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" t="s">
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="L2" s="5"/>
       <c r="M2" t="s">
         <v>8</v>
       </c>
@@ -610,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -656,7 +693,7 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4">
@@ -687,28 +724,28 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -764,31 +801,31 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -814,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -847,31 +884,31 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -897,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -924,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -939,22 +976,22 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -971,13 +1008,13 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1007,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1034,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1051,10 +1088,10 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1087,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1114,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1134,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1146,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1167,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1200,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -1238,16 +1275,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1268,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1280,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -1303,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1327,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1348,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>1</v>
@@ -1380,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1407,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1469,25 +1506,25 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1517,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -1551,8 +1588,8 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>0</v>
+      <c r="I15" s="4">
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1567,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1600,249 +1637,9 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
         <v>0</v>
       </c>
     </row>
@@ -1850,14 +1647,3140 @@
   <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3:Z18">
+  <conditionalFormatting sqref="N4:Z18">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:XFD3 B4:M18">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059963D1-585E-43B9-97E4-CEBB7C7E826A}">
+  <dimension ref="A1:Z51"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f>B11 + B3</f>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:Z27" si="0">C11 + C3</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f t="shared" ref="B28:Z28" si="1">B12 + B4</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f t="shared" ref="B29:Z29" si="2">B13 + B5</f>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f t="shared" ref="B30:Z30" si="3">B14 + B6</f>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f t="shared" ref="B31:Z31" si="4">B15 + B7</f>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <f t="shared" ref="B32:Z32" si="5">B16 + B8</f>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f t="shared" ref="B33:Z33" si="6">B17 + B9</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <f t="shared" ref="B34:Z34" si="7">B18 + B10</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N3:Z14">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:Z2 B3:M14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54711F6F-5A0F-4B05-95C7-5B923389D9F2}">
+  <dimension ref="A1:Z14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Z14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OperazioneSanSilvestro/ROM_controllo.xlsx
+++ b/OperazioneSanSilvestro/ROM_controllo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PoliTo\SDI\Laboratori\LaboratoriSDI\OperazioneSanSilvestro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1E478A-C84E-4E0A-A65C-3C327BC8DF2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A7EBD-0577-4E74-96E9-35B265EC1EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{1C19EF36-42B0-4CC7-9733-6604E177C732}"/>
   </bookViews>
@@ -165,7 +165,57 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -520,7 +570,7 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z4" sqref="Z4"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3:Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1651,12 +1701,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N4:Z18">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:XFD3 B4:M18">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1670,7 +1720,7 @@
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+      <selection activeCell="B11" sqref="B11:Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1843,19 +1893,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1867,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1888,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1920,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1947,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2009,25 +2059,25 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2092,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2107,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2731,7 +2781,7 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>1</v>
       </c>
       <c r="J14">
@@ -2788,7 +2838,7 @@
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B27">
-        <f>B11 + B3</f>
+        <f>B11+ B3</f>
         <v>0</v>
       </c>
       <c r="C27">
@@ -2805,23 +2855,23 @@
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
@@ -2837,7 +2887,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27">
         <f t="shared" si="0"/>
@@ -2865,7 +2915,7 @@
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27">
         <f t="shared" si="0"/>
@@ -2873,7 +2923,7 @@
       </c>
       <c r="W27">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <f t="shared" si="0"/>
@@ -2903,7 +2953,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
@@ -2911,7 +2961,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
@@ -2939,7 +2989,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
@@ -3017,15 +3067,15 @@
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <f t="shared" si="2"/>
@@ -3033,7 +3083,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
@@ -3041,7 +3091,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
@@ -3123,7 +3173,7 @@
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
@@ -3143,7 +3193,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30">
         <f t="shared" si="3"/>
@@ -3647,13 +3697,18 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="K1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N3:Z14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="A2">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:Z2 B3:M14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="N3:Z14">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:Z2 B3:M14">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3666,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54711F6F-5A0F-4B05-95C7-5B923389D9F2}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Z14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3861,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -3891,10 +3946,10 @@
         <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3941,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -3971,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4021,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4051,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4101,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -4134,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -4725,7 +4780,7 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>1</v>
       </c>
       <c r="J14">
@@ -4781,6 +4836,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:Z14">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:M14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>